--- a/biology/Botanique/Ixora_davisii/Ixora_davisii.xlsx
+++ b/biology/Botanique/Ixora_davisii/Ixora_davisii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ixora davisii est une espèce néotropicale d'arbuste, appartenant à la famille des Rubiaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 1953, Lemée en propose la description suivante de Ixora davisii :
 « Grand arbrisseau, ou petit arbre à petits rameaux glabres ; feuilles de 0,09-0,19 sur 0,05-0,08, elliptiques ou ovales-oblongues acuminées, à base obtuse ou en coin, coriaces, glabres, côte saillante en dessous, environ 10 paires de nervures latérales, réticulation très obscure, gaine stipulaire de 2-3 mm., aristée, glabre en dehors ; inflorescences terminales thyrsoïdes sessiles denses, bractées et bractéoles embrassant les calices, et persistantes ; fleurs sessiles, calice campanulé pubérulent en dehors, pubescent en dedans, à segments courts deltoïdes, corolle pubérulente en dehors, à tube de 9-10 mm. rouge et lobes de 6-7 mm. blancs en dedans, tordus, deltoïdes-lancéolés aigus, anthères sessiles oblongues, style et stigmate glabres ; fruit de 9 mm., subglobuleux pubérulent au sommet, entouré des bractées et bractéoles et surmonté du calice. - (Aublet). »
-— Albert Lemée, 1953.[3]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taxonomie de Ixora davisii a été abordée[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taxonomie de Ixora davisii a été abordée.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La répartition de Ixora davisii est restreinte au plateau des Guyanes.
 </t>
@@ -605,7 +623,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ixora davisii est largement méconnu.
 </t>
@@ -636,9 +656,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant sous le nom de Patabea coccinea[5] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant sous le nom de Patabea coccinea : 
 « 1. PATABEA coccinea. (Tabula 43.)
 Frutex, trunco quatuor aut quinque-pedali, ramos plures ad ſummitatem emittente, undiquè ſparſos ; ramuſculis nodoſis, oppoſitis. Folia oppoſita, infernè pallidè virentia, petiolata. Stipula oblonga, acuta, utrinque intra baſim petiolorum. Flores capitati, terminales ; capitulo ſquamoſo. Receptaculum paleaceum ; paleis oblongis,acutis, intrà ſingulos flores. Corolla rubra.
 Florebat Junio.
